--- a/biology/Histoire de la zoologie et de la botanique/Chris_McBride/Chris_McBride.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Chris_McBride/Chris_McBride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chris McBride (né en 1941 à Johannesburg) fut le premier à observer les lions blancs de Timbavati en Afrique du Sud, en octobre 1975, où deux lions blancs sont nés d'une lionne et un lion de couleur fauve dans la réserve naturelle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chris McBride (né en 1941 à Johannesburg) fut le premier à observer les lions blancs de Timbavati en Afrique du Sud, en octobre 1975, où deux lions blancs sont nés d'une lionne et un lion de couleur fauve dans la réserve naturelle.
 </t>
         </is>
       </c>
